--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">QwQ 32b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skywork R1V 38B</t>
   </si>
   <si>
     <t xml:space="preserve">Gemini 2.0 Flash Thinking exp</t>
@@ -566,10 +569,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -813,6 +816,9 @@
       <c r="B15" s="1" t="n">
         <v>79.5</v>
       </c>
+      <c r="C15" s="1" t="n">
+        <v>62.5</v>
+      </c>
       <c r="F15" s="1" t="n">
         <v>63.4</v>
       </c>
@@ -822,13 +828,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>73.3</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>43.8</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,59 +839,59 @@
         <v>26</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>83.3</v>
+        <v>73.3</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>1891</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>96.6</v>
+        <v>74.2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>48.9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D19" s="1" t="n">
         <v>1820</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E19" s="1" t="n">
         <v>93.4</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>53.8</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G19" s="1" t="n">
         <v>41.6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>2727</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,16 +899,13 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>79.6</v>
+        <v>96.7</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>76.8</v>
+        <v>87.7</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>2036</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>68.7</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,75 +913,91 @@
         <v>31</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>87.3</v>
+        <v>79.6</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>79.7</v>
+        <v>76.8</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>2130</v>
+        <v>2036</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>35</v>
+      <c r="B22" s="1" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2130</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>49.3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="F24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="1" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -79,13 +79,16 @@
     <t xml:space="preserve">DeepSeek-R1</t>
   </si>
   <si>
-    <t xml:space="preserve">DeepScaleR-1.5B-Preview </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeepSeek-R1-Distill-Qwen-7B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5（83.3）</t>
+    <t xml:space="preserve">EXAONE Deep 2.4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5(76.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAONE Deep 7.8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0(83.3)</t>
   </si>
   <si>
     <t xml:space="preserve">DeepSeek-R1-Distill-Qwen-14B</t>
@@ -572,7 +575,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -771,33 +774,36 @@
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>43.1</v>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>46.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
+      <c r="A13" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>1189</v>
+        <v>62.6</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>37.6</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>59.1</v>
@@ -811,7 +817,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>79.5</v>
@@ -825,7 +831,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>72</v>
@@ -836,7 +842,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>73.3</v>
@@ -850,7 +856,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>83.3</v>
@@ -873,10 +879,10 @@
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>60</v>
@@ -896,7 +902,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>96.7</v>
@@ -910,7 +916,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>79.6</v>
@@ -927,7 +933,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>87.3</v>
@@ -947,35 +953,35 @@
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>77.5</v>
@@ -989,13 +995,13 @@
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">78.2(84.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunyuan T1</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,6 +1007,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>64.9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">非推理模型</t>
   </si>
   <si>
-    <t xml:space="preserve">Deepseek v3</t>
+    <t xml:space="preserve">Deepseek v3 0324</t>
   </si>
   <si>
     <t xml:space="preserve">Grok3</t>
@@ -578,7 +578,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,19 +636,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>39.2</v>
+        <v>59.4</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>58.7</v>
+        <v>68.4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>42</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,7 +1001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
         <v>46</v>
       </c>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">SimpleQA</t>
   </si>
   <si>
+    <t xml:space="preserve">Humanity’s Last Exam</t>
+  </si>
+  <si>
     <t xml:space="preserve">非推理模型</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t xml:space="preserve">o3</t>
   </si>
   <si>
-    <t xml:space="preserve">o3 mini</t>
-  </si>
-  <si>
     <t xml:space="preserve">o3 mini(high)</t>
   </si>
   <si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hunyuan T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemini2.5 pro exp</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,11 +306,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -575,10 +586,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -591,6 +602,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,22 +630,26 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
+      <c r="A3" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>59.4</v>
@@ -646,8 +662,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
+      <c r="A4" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>52</v>
@@ -660,8 +676,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
+      <c r="A5" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>40</v>
@@ -674,8 +690,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
+      <c r="A6" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>60.1</v>
@@ -688,8 +704,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
+      <c r="A7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>64.7</v>
@@ -702,8 +718,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
+      <c r="A8" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>36.7</v>
@@ -717,10 +733,13 @@
       <c r="H8" s="1" t="n">
         <v>62.5</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
+      <c r="A9" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>23.3</v>
@@ -729,24 +748,25 @@
         <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
+      <c r="A11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>79.8</v>
@@ -766,13 +786,16 @@
       <c r="G11" s="1" t="n">
         <v>49.2</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
+      <c r="A12" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>54.3</v>
@@ -782,11 +805,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>21</v>
+      <c r="A13" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>62.6</v>
@@ -796,11 +819,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
+      <c r="A14" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>59.1</v>
@@ -813,8 +836,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
+      <c r="A15" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>79.5</v>
@@ -827,8 +850,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>26</v>
+      <c r="A16" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>72</v>
@@ -838,8 +861,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>27</v>
+      <c r="A17" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>73.3</v>
@@ -852,8 +875,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>28</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>83.3</v>
@@ -875,11 +898,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>29</v>
+      <c r="A19" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>60</v>
@@ -898,8 +921,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>31</v>
+      <c r="A20" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>96.7</v>
@@ -912,109 +935,119 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>32</v>
+      <c r="A21" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>79.6</v>
+        <v>87.3</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>76.8</v>
+        <v>79.7</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>2036</v>
+        <v>2130</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F22" s="1" t="n">
         <v>73.1</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G21" s="1" t="n">
         <v>49.3</v>
       </c>
+      <c r="I21" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>34</v>
+      <c r="A23" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>77.5</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E24" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F24" s="1" t="n">
         <v>62.5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="I25" s="0" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>64.9</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>46</v>
+      <c r="A27" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>78.2</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>69.3</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>64.9</v>
-      </c>
-    </row>
+        <v>70.4</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -76,6 +76,12 @@
     <t xml:space="preserve">62.3(70.3)</t>
   </si>
   <si>
+    <t xml:space="preserve">Llama4 Scout 109b a17b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama4 Maverick 402b a17b</t>
+  </si>
+  <si>
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
@@ -110,12 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">OpenAI o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o1 mini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6（80）</t>
   </si>
   <si>
     <t xml:space="preserve">o3</t>
@@ -289,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,7 +306,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,10 +315,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,7 +585,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,7 +598,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,10 +641,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -662,7 +658,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -676,7 +672,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -690,7 +686,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -704,7 +700,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -718,7 +714,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -733,12 +729,12 @@
       <c r="H8" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>6.4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -752,298 +748,297 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="C10" s="1" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>32.8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="C11" s="1" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>79.8</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>71.5</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D13" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E13" s="1" t="n">
         <v>96.3</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F13" s="1" t="n">
         <v>65.9</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G13" s="1" t="n">
         <v>49.2</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="n">
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>54.3</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F14" s="1" t="n">
         <v>46.6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="n">
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>62.6</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F15" s="1" t="n">
         <v>55.2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="n">
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>59.1</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D16" s="1" t="n">
         <v>1481</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F16" s="1" t="n">
         <v>53.1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>79.5</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F17" s="1" t="n">
         <v>63.4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C18" s="1" t="n">
         <v>61.6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C19" s="1" t="n">
         <v>74.2</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>43.8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C20" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D20" s="1" t="n">
         <v>1891</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E20" s="1" t="n">
         <v>96.6</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F20" s="1" t="n">
         <v>71.8</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G20" s="1" t="n">
         <v>48.9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>1820</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>96.7</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D21" s="1" t="n">
         <v>2727</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C22" s="1" t="n">
         <v>79.7</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D22" s="1" t="n">
         <v>2130</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F22" s="1" t="n">
         <v>73.1</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G22" s="1" t="n">
         <v>49.3</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>77.5</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E25" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F25" s="1" t="n">
         <v>62.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <v>8.9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>78.2</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C27" s="1" t="n">
         <v>69.3</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F27" s="1" t="n">
         <v>64.9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F28" s="1" t="n">
         <v>70.4</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G28" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <v>18.8</v>
       </c>
     </row>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -76,10 +76,7 @@
     <t xml:space="preserve">62.3(70.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Llama4 Scout 109b a17b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llama4 Maverick 402b a17b</t>
+    <t xml:space="preserve">Mistral Small3.1</t>
   </si>
   <si>
     <t xml:space="preserve">推理模型</t>
@@ -148,9 +145,6 @@
     <t xml:space="preserve">75（80）</t>
   </si>
   <si>
-    <t xml:space="preserve">Kimi k1.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Claude 3.7 Sonnet（thinking）</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">78.2(84.8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunyuan T1</t>
   </si>
   <si>
     <t xml:space="preserve">Gemini2.5 pro exp</t>
@@ -585,7 +576,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,105 +743,108 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>32.8</v>
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>10.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>43.4</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="1" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>79.8</v>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>2029</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>96.3</v>
+        <v>54.3</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>65.9</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>8.6</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>54.3</v>
+        <v>62.6</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>46.6</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>24</v>
+      <c r="A15" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>62.6</v>
+        <v>59.1</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1481</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B16" s="1" t="n">
+        <v>79.5</v>
+      </c>
       <c r="C16" s="1" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>1481</v>
+        <v>62.5</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>53.1</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,13 +852,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>79.5</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>63.4</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,10 +863,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>61.6</v>
+        <v>74.2</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,13 +877,22 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>73.3</v>
+        <v>83.3</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>74.2</v>
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>96.6</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>43.8</v>
+        <v>71.8</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,22 +900,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>83.3</v>
+        <v>96.7</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>78</v>
+        <v>87.7</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>1891</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>96.6</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>48.9</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,128 +914,89 @@
         <v>32</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>96.7</v>
+        <v>87.3</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>87.7</v>
+        <v>79.7</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2130</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>14</v>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>38</v>
+      <c r="A24" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>84</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>64.9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="F28" s="1" t="n">
         <v>70.4</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G25" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I25" s="1" t="n">
         <v>18.8</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -97,10 +97,7 @@
     <t xml:space="preserve">70.0(83.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">DeepSeek-R1-Distill-Qwen-14B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.7（80）</t>
+    <t xml:space="preserve">DeepCoder-14B-Preview </t>
   </si>
   <si>
     <t xml:space="preserve">QwQ 32b</t>
@@ -576,7 +573,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -816,26 +813,23 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>59.1</v>
-      </c>
       <c r="D15" s="1" t="n">
-        <v>1481</v>
+        <v>1936</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>95.3</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>53.1</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>79.5</v>
@@ -849,7 +843,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>72</v>
@@ -860,7 +854,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>73.3</v>
@@ -874,7 +868,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>83.3</v>
@@ -897,7 +891,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>96.7</v>
@@ -911,7 +905,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>87.3</v>
@@ -934,41 +928,41 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>8.9</v>
@@ -976,7 +970,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>92</v>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -91,10 +91,7 @@
     <t xml:space="preserve">52.5(76.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">EXAONE Deep 7.8B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0(83.3)</t>
+    <t xml:space="preserve">Skywork OR1 Math 7B</t>
   </si>
   <si>
     <t xml:space="preserve">DeepCoder-14B-Preview </t>
@@ -573,7 +570,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -803,19 +800,16 @@
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>62.6</v>
+      <c r="B14" s="1" t="n">
+        <v>69.8</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>55.2</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1936</v>
@@ -829,7 +823,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>79.5</v>
@@ -843,7 +837,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>72</v>
@@ -854,7 +848,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>73.3</v>
@@ -868,7 +862,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>83.3</v>
@@ -891,7 +885,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>96.7</v>
@@ -905,7 +899,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>87.3</v>
@@ -928,41 +922,41 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>8.9</v>
@@ -970,7 +964,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>92</v>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -67,7 +67,10 @@
     <t xml:space="preserve">Gemini2.0 pro exp</t>
   </si>
   <si>
-    <t xml:space="preserve">GPT4.5</t>
+    <t xml:space="preserve">GPT4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPT4.1 Mini</t>
   </si>
   <si>
     <t xml:space="preserve">Claude 3.7 Sonnet</t>
@@ -76,9 +79,6 @@
     <t xml:space="preserve">62.3(70.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mistral Small3.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">QwQ 32b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skywork R1V 38B</t>
   </si>
   <si>
     <t xml:space="preserve">Gemini 2.0 Flash Thinking exp</t>
@@ -570,7 +567,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -703,19 +700,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>36.7</v>
+        <v>48.1</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>71.4</v>
+        <v>66.3</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>6.4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,24 +714,27 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>23.3</v>
+        <v>49.6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>10.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,10 +834,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>61.6</v>
+        <v>74.2</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,13 +848,22 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>73.3</v>
+        <v>83.3</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>74.2</v>
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>96.6</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>43.8</v>
+        <v>71.8</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,22 +871,13 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>83.3</v>
+        <v>96.7</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>78</v>
+        <v>87.7</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>1891</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>96.6</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>48.9</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,100 +885,87 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>96.7</v>
+        <v>87.3</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>87.7</v>
+        <v>79.7</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2130</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>14</v>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>35</v>
+      <c r="A23" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B24" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>63.8</v>
+      </c>
       <c r="I24" s="1" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>70.4</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="I25" s="1" t="n">
         <v>18.8</v>
       </c>
     </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -103,25 +103,7 @@
     <t xml:space="preserve">Gemini 2.0 Flash Thinking exp</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenAI o1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3 mini(high)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grok3 Reasoning Beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83（93）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80（85）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71（79）</t>
+    <t xml:space="preserve">OpenAI o4 mini</t>
   </si>
   <si>
     <t xml:space="preserve">Grok3 mini Reasoning</t>
@@ -567,7 +549,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -848,123 +830,75 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>83.3</v>
+        <v>93.4</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>78</v>
+        <v>81.4</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>1891</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>96.6</v>
+        <v>2719</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>71.8</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>48.9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68.1</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>73.1</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>49.3</v>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F21" s="1" t="n">
         <v>70.4</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G21" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I21" s="1" t="n">
         <v>18.8</v>
       </c>
     </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">52.5(76.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Skywork OR1 Math 7B</t>
+    <t xml:space="preserve">GLM Z1 9B</t>
   </si>
   <si>
     <t xml:space="preserve">DeepCoder-14B-Preview </t>
@@ -549,7 +549,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -777,10 +777,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>69.8</v>
+        <v>76.4</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>58.5</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>43.6</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -61,12 +61,6 @@
     <t xml:space="preserve">Grok3 mini</t>
   </si>
   <si>
-    <t xml:space="preserve">Gemini 2.0 Flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemini2.0 pro exp</t>
-  </si>
-  <si>
     <t xml:space="preserve">GPT4.1</t>
   </si>
   <si>
@@ -100,7 +94,7 @@
     <t xml:space="preserve">QwQ 32b</t>
   </si>
   <si>
-    <t xml:space="preserve">Gemini 2.0 Flash Thinking exp</t>
+    <t xml:space="preserve">Gemini 2.5 Flash exp</t>
   </si>
   <si>
     <t xml:space="preserve">OpenAI o4 mini</t>
@@ -549,12 +543,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.22"/>
@@ -653,28 +647,28 @@
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="1" t="n">
+        <v>48.1</v>
+      </c>
       <c r="C6" s="1" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>29.9</v>
+        <v>66.3</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B7" s="1" t="n">
+        <v>49.6</v>
+      </c>
       <c r="C7" s="1" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>44.3</v>
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,122 +676,125 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>48.1</v>
+        <v>23.3</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>24</v>
-      </c>
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
+      <c r="A10" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>23.3</v>
+        <v>79.8</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+        <v>71.5</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C11" s="1" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="B12" s="1" t="n">
-        <v>79.8</v>
+        <v>76.4</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>2029</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>96.3</v>
+        <v>58.5</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>65.9</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>54.3</v>
+      <c r="D13" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>95.3</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>76.4</v>
+        <v>79.5</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>58.5</v>
+        <v>62.5</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>51.8</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>1936</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>95.3</v>
+      <c r="B15" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>78.3</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>60.6</v>
+        <v>63.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,100 +802,74 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>79.5</v>
+        <v>93.4</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>62.5</v>
+        <v>81.4</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2719</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71.8</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>81.4</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>2719</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>68.1</v>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C19" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>70.4</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G19" s="1" t="n">
         <v>63.8</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I19" s="1" t="n">
         <v>18.8</v>
       </c>
     </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gemini2.5 pro exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skywork R1V2 38b</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.89"/>
@@ -810,9 +813,6 @@
       <c r="D16" s="1" t="n">
         <v>2719</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <v>71.8</v>
-      </c>
       <c r="G16" s="1" t="n">
         <v>68.1</v>
       </c>
@@ -866,6 +866,17 @@
       </c>
       <c r="I19" s="1" t="n">
         <v>18.8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>78.9</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -34,19 +34,16 @@
     <t xml:space="preserve">Codeforces(rating)</t>
   </si>
   <si>
-    <t xml:space="preserve">Codeforces(percentile)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LiveCodeBench</t>
   </si>
   <si>
     <t xml:space="preserve">SWE-Bench</t>
   </si>
   <si>
-    <t xml:space="preserve">SimpleQA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Humanity’s Last Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontier Math</t>
   </si>
   <si>
     <t xml:space="preserve">非推理模型</t>
@@ -250,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,10 +257,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,10 +536,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,11 +548,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="9.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,32 +574,28 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>59.4</v>
@@ -614,13 +603,13 @@
       <c r="C3" s="1" t="n">
         <v>68.4</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>49.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>52</v>
@@ -628,13 +617,13 @@
       <c r="C4" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="E4" s="1" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
+      <c r="A5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>40</v>
@@ -642,13 +631,13 @@
       <c r="C5" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="1" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
+      <c r="A6" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>48.1</v>
@@ -656,13 +645,13 @@
       <c r="C6" s="1" t="n">
         <v>66.3</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="F6" s="1" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
+      <c r="A7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>49.6</v>
@@ -670,13 +659,13 @@
       <c r="C7" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="F7" s="1" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
+      <c r="A8" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>23.3</v>
@@ -684,26 +673,25 @@
       <c r="C8" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>79.8</v>
@@ -715,35 +703,32 @@
         <v>2029</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>96.3</v>
+        <v>65.9</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>65.9</v>
+        <v>49.2</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="I10" s="1" t="n">
         <v>8.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>54.3</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="E11" s="1" t="n">
         <v>46.6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
+      <c r="A12" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>76.4</v>
@@ -751,27 +736,24 @@
       <c r="C12" s="1" t="n">
         <v>58.5</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="E12" s="1" t="n">
         <v>51.8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
+      <c r="A13" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1936</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="F13" s="1" t="n">
         <v>60.6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
+      <c r="A14" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>79.5</v>
@@ -779,13 +761,13 @@
       <c r="C14" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="E14" s="1" t="n">
         <v>63.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
+      <c r="A15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>88</v>
@@ -793,16 +775,16 @@
       <c r="C15" s="1" t="n">
         <v>78.3</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="E15" s="1" t="n">
         <v>63.5</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="G15" s="1" t="n">
         <v>12.1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>25</v>
+      <c r="A16" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>93.4</v>
@@ -813,44 +795,53 @@
       <c r="D16" s="1" t="n">
         <v>2719</v>
       </c>
+      <c r="F16" s="1" t="n">
+        <v>68.1</v>
+      </c>
       <c r="G16" s="1" t="n">
-        <v>68.1</v>
-      </c>
-      <c r="I16" s="1" t="n">
         <v>14.3</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="G18" s="1" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>92</v>
@@ -858,37 +849,28 @@
       <c r="C19" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="E19" s="1" t="n">
+        <v>70.4</v>
+      </c>
       <c r="F19" s="1" t="n">
-        <v>70.4</v>
+        <v>63.8</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="I19" s="1" t="n">
         <v>18.8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
+      <c r="A20" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>78.9</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="E20" s="1" t="n">
         <v>63.6</v>
       </c>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/旗舰模型和推理模型.xlsx
+++ b/files/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -73,22 +73,16 @@
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
-    <t xml:space="preserve">DeepSeek-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAONE Deep 2.4B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5(76.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLM Z1 9B</t>
+    <t xml:space="preserve">Qwen3 4b</t>
   </si>
   <si>
     <t xml:space="preserve">DeepCoder-14B-Preview </t>
   </si>
   <si>
-    <t xml:space="preserve">QwQ 32b</t>
+    <t xml:space="preserve">Qwen3 30b a3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen3 235b a22b</t>
   </si>
   <si>
     <t xml:space="preserve">Gemini 2.5 Flash exp</t>
@@ -539,7 +533,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2734375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,8 +545,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="9.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,188 +683,173 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>79.8</v>
+        <v>73.8</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>71.5</v>
+        <v>55.9</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>2029</v>
+        <v>1671</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>65.9</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>76.4</v>
+      <c r="B12" s="0" t="n">
+        <v>80.4</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>51.8</v>
+        <v>65.8</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>62.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>85.7</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1936</v>
+        <v>2056</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>60.6</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>79.5</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>62.5</v>
+        <v>78.3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>63.4</v>
+        <v>63.5</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>93.4</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2719</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>81.4</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>2719</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>68.1</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>17</v>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>25</v>
+      <c r="A17" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>63.8</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>4</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>84</v>
+        <v>78.9</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>70.4</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>78.9</v>
-      </c>
-      <c r="E20" s="1" t="n">
         <v>63.6</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
